--- a/public/template/template_p_sertifikasi.xlsx
+++ b/public/template/template_p_sertifikasi.xlsx
@@ -1,40 +1,447 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data Sertifikasi" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data Sertifikasi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>NIDN</t>
+  </si>
+  <si>
+    <t>Tahun Diperoleh</t>
+  </si>
+  <si>
+    <t>Penerbit</t>
+  </si>
+  <si>
+    <t>Nama Sertifikasi</t>
+  </si>
+  <si>
+    <t>Nomor Sertifikat</t>
+  </si>
+  <si>
+    <t>Masa Berlaku</t>
+  </si>
+  <si>
+    <t>19776501016375</t>
+  </si>
+  <si>
+    <t>BNSP</t>
+  </si>
+  <si>
+    <t>Sertifikasi Kompetensi</t>
+  </si>
+  <si>
+    <t>SK-001-2023</t>
+  </si>
+  <si>
+    <t>3 Tahun</t>
+  </si>
+  <si>
+    <t>19856501011904</t>
+  </si>
+  <si>
+    <t>Kominfo</t>
+  </si>
+  <si>
+    <t>Digital Talent</t>
+  </si>
+  <si>
+    <t>SK-002-2024</t>
+  </si>
+  <si>
+    <t>Sampai 2027</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,85 +449,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -403,117 +1038,90 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>NIDN</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Tahun Diperoleh</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Penerbit</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Nama Sertifikasi</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Nomor Sertifikat</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Masa Berlaku</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>7492436617</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>2023</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BNSP</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sertifikasi Kompetensi</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SK-001-2023</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3 Tahun</t>
-        </is>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>7492436617</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>2024</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Kominfo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Digital Talent</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SK-002-2024</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sampai 2027</t>
-        </is>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/template/template_p_sertifikasi.xlsx
+++ b/public/template/template_p_sertifikasi.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Sertifikasi" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NIDN</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Masa Berlaku</t>
   </si>
   <si>
-    <t>19776501016375</t>
-  </si>
-  <si>
     <t>BNSP</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>3 Tahun</t>
-  </si>
-  <si>
-    <t>19856501011904</t>
   </si>
   <si>
     <t>Kominfo</t>
@@ -87,14 +81,7 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,155 +536,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +741,221 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -760,7 +965,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -770,39 +975,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,6 +1039,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -868,6 +1074,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -879,160 +1086,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1047,17 +1225,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
+    <col min="6" max="7" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1081,43 +1259,43 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="A2">
+        <v>6603439904</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>2023</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3">
+        <v>6603439904</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>2024</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
